--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Epha4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5010686666666667</v>
+        <v>0.2151756666666667</v>
       </c>
       <c r="H2">
-        <v>1.503206</v>
+        <v>0.645527</v>
       </c>
       <c r="I2">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="J2">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N2">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q2">
-        <v>2.848603930914</v>
+        <v>2.201378614057556</v>
       </c>
       <c r="R2">
-        <v>25.637435378226</v>
+        <v>19.812407526518</v>
       </c>
       <c r="S2">
-        <v>0.216983939883603</v>
+        <v>0.08700888568042021</v>
       </c>
       <c r="T2">
-        <v>0.216983939883603</v>
+        <v>0.08700888568042021</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5010686666666667</v>
+        <v>0.2151756666666667</v>
       </c>
       <c r="H3">
-        <v>1.503206</v>
+        <v>0.645527</v>
       </c>
       <c r="I3">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="J3">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.325559</v>
       </c>
       <c r="O3">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P3">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q3">
-        <v>4.396970915794888</v>
+        <v>1.888206569399222</v>
       </c>
       <c r="R3">
-        <v>39.572738242154</v>
+        <v>16.993859124593</v>
       </c>
       <c r="S3">
-        <v>0.3349261940239849</v>
+        <v>0.07463084654713555</v>
       </c>
       <c r="T3">
-        <v>0.334926194023985</v>
+        <v>0.07463084654713555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,14 +646,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5010686666666667</v>
+        <v>0.2151756666666667</v>
       </c>
       <c r="H4">
-        <v>1.503206</v>
+        <v>0.645527</v>
       </c>
       <c r="I4">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="J4">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N4">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O4">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P4">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q4">
-        <v>0.6362082222497778</v>
+        <v>0.4378291181013332</v>
       </c>
       <c r="R4">
-        <v>5.725874000248</v>
+        <v>3.940462062911999</v>
       </c>
       <c r="S4">
-        <v>0.04846127085340576</v>
+        <v>0.01730507575624249</v>
       </c>
       <c r="T4">
-        <v>0.04846127085340576</v>
+        <v>0.0173050757562425</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5010686666666667</v>
+        <v>0.2151756666666667</v>
       </c>
       <c r="H5">
-        <v>1.503206</v>
+        <v>0.645527</v>
       </c>
       <c r="I5">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="J5">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N5">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O5">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P5">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q5">
-        <v>0.02089289317111111</v>
+        <v>0.006242819891777778</v>
       </c>
       <c r="R5">
-        <v>0.18803603854</v>
+        <v>0.056185379026</v>
       </c>
       <c r="S5">
-        <v>0.001591454054611349</v>
+        <v>0.0002467457432440308</v>
       </c>
       <c r="T5">
-        <v>0.001591454054611349</v>
+        <v>0.0002467457432440308</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.5010686666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.503206</v>
+      </c>
+      <c r="I6">
+        <v>0.4172742870736815</v>
+      </c>
+      <c r="J6">
+        <v>0.4172742870736815</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.3313226666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.9939680000000001</v>
-      </c>
-      <c r="I6">
-        <v>0.3980371411843948</v>
-      </c>
-      <c r="J6">
-        <v>0.3980371411843948</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M6">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N6">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O6">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P6">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q6">
-        <v>1.883588245392</v>
+        <v>5.126238779978223</v>
       </c>
       <c r="R6">
-        <v>16.952294208528</v>
+        <v>46.136149019804</v>
       </c>
       <c r="S6">
-        <v>0.1434767375584086</v>
+        <v>0.2026131811808364</v>
       </c>
       <c r="T6">
-        <v>0.1434767375584086</v>
+        <v>0.2026131811808364</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3313226666666667</v>
+        <v>0.5010686666666667</v>
       </c>
       <c r="H7">
-        <v>0.9939680000000001</v>
+        <v>1.503206</v>
       </c>
       <c r="I7">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="J7">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>26.325559</v>
       </c>
       <c r="O7">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P7">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q7">
-        <v>2.907418136456889</v>
+        <v>4.396970915794888</v>
       </c>
       <c r="R7">
-        <v>26.166763228112</v>
+        <v>39.572738242154</v>
       </c>
       <c r="S7">
-        <v>0.221463937225924</v>
+        <v>0.1737890689541002</v>
       </c>
       <c r="T7">
-        <v>0.221463937225924</v>
+        <v>0.1737890689541002</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3313226666666667</v>
+        <v>0.5010686666666667</v>
       </c>
       <c r="H8">
-        <v>0.9939680000000001</v>
+        <v>1.503206</v>
       </c>
       <c r="I8">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="J8">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N8">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O8">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P8">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q8">
-        <v>0.4206812733937778</v>
+        <v>1.019550471637333</v>
       </c>
       <c r="R8">
-        <v>3.786131460544</v>
+        <v>9.175954244735999</v>
       </c>
       <c r="S8">
-        <v>0.03204414595711966</v>
+        <v>0.04029745263519304</v>
       </c>
       <c r="T8">
-        <v>0.03204414595711966</v>
+        <v>0.04029745263519304</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.5010686666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.503206</v>
+      </c>
+      <c r="I9">
+        <v>0.4172742870736815</v>
+      </c>
+      <c r="J9">
+        <v>0.4172742870736815</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.02901266666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.087038</v>
+      </c>
+      <c r="O9">
+        <v>0.001376994272954919</v>
+      </c>
+      <c r="P9">
+        <v>0.001376994272954919</v>
+      </c>
+      <c r="Q9">
+        <v>0.01453733820311111</v>
+      </c>
+      <c r="R9">
+        <v>0.130836043828</v>
+      </c>
+      <c r="S9">
+        <v>0.0005745843035518059</v>
+      </c>
+      <c r="T9">
+        <v>0.0005745843035518059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.453708</v>
+      </c>
+      <c r="I10">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J10">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.3313226666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.9939680000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.3980371411843948</v>
-      </c>
-      <c r="J9">
-        <v>0.3980371411843948</v>
-      </c>
-      <c r="K9">
+      <c r="M10">
+        <v>10.23061133333333</v>
+      </c>
+      <c r="N10">
+        <v>30.691834</v>
+      </c>
+      <c r="O10">
+        <v>0.4855635428718841</v>
+      </c>
+      <c r="P10">
+        <v>0.4855635428718841</v>
+      </c>
+      <c r="Q10">
+        <v>4.957440513385778</v>
+      </c>
+      <c r="R10">
+        <v>44.616964620472</v>
+      </c>
+      <c r="S10">
+        <v>0.1959414760106275</v>
+      </c>
+      <c r="T10">
+        <v>0.1959414760106275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H11">
+        <v>1.453708</v>
+      </c>
+      <c r="I11">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J11">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.04169666666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.12509</v>
-      </c>
-      <c r="O9">
-        <v>0.002643774497553922</v>
-      </c>
-      <c r="P9">
-        <v>0.002643774497553922</v>
-      </c>
-      <c r="Q9">
-        <v>0.01381505079111111</v>
-      </c>
-      <c r="R9">
-        <v>0.12433545712</v>
-      </c>
-      <c r="S9">
-        <v>0.001052320442942573</v>
-      </c>
-      <c r="T9">
-        <v>0.001052320442942573</v>
+      <c r="M11">
+        <v>8.775186333333332</v>
+      </c>
+      <c r="N11">
+        <v>26.325559</v>
+      </c>
+      <c r="O11">
+        <v>0.4164864079521221</v>
+      </c>
+      <c r="P11">
+        <v>0.4164864079521222</v>
+      </c>
+      <c r="Q11">
+        <v>4.252186191419111</v>
+      </c>
+      <c r="R11">
+        <v>38.269675722772</v>
+      </c>
+      <c r="S11">
+        <v>0.1680664924508864</v>
+      </c>
+      <c r="T11">
+        <v>0.1680664924508864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.453708</v>
+      </c>
+      <c r="I12">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J12">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.034752</v>
+      </c>
+      <c r="N12">
+        <v>6.104255999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.09657305490303886</v>
+      </c>
+      <c r="P12">
+        <v>0.09657305490303887</v>
+      </c>
+      <c r="Q12">
+        <v>0.9859784201386665</v>
+      </c>
+      <c r="R12">
+        <v>8.873805781247999</v>
+      </c>
+      <c r="S12">
+        <v>0.03897052651160333</v>
+      </c>
+      <c r="T12">
+        <v>0.03897052651160333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.453708</v>
+      </c>
+      <c r="I13">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J13">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.02901266666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.087038</v>
+      </c>
+      <c r="O13">
+        <v>0.001376994272954919</v>
+      </c>
+      <c r="P13">
+        <v>0.001376994272954919</v>
+      </c>
+      <c r="Q13">
+        <v>0.01405864854488889</v>
+      </c>
+      <c r="R13">
+        <v>0.126527836904</v>
+      </c>
+      <c r="S13">
+        <v>0.0005556642261590818</v>
+      </c>
+      <c r="T13">
+        <v>0.0005556642261590818</v>
       </c>
     </row>
   </sheetData>
